--- a/biology/Botanique/Olea_exasperata/Olea_exasperata.xlsx
+++ b/biology/Botanique/Olea_exasperata/Olea_exasperata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea exasperata Jacq. est un végétal appartenant au genre Olea. C'est un arbre qui pousse en Afrique du Sud.
 </t>
@@ -513,17 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Référence taxonomique
-Ce taxon est décrit, selon P.S. Green [1], dans : Pl. Hort. Schoembr. 3 : 1, t. 251 (1798) ; DC., Prodr. 8: 287 (1844) ; Adamson &amp; Salter, Fl. Cape Penins. : 669 (1950) ; Verdoorn, Bothalia 6: 579, fig. 5 (1956) &amp; in Dyer et al., Fl. Southern Afr. 26 : 115 (1963) ; Palmer &amp; Pitman, Trees Southern Afr. 3 : 1825 (1972) ; Palgrave, Trees Southern Afr.: 760 (1977);
+          <t>Référence taxonomique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est décrit, selon P.S. Green , dans : Pl. Hort. Schoembr. 3 : 1, t. 251 (1798) ; DC., Prodr. 8: 287 (1844) ; Adamson &amp; Salter, Fl. Cape Penins. : 669 (1950) ; Verdoorn, Bothalia 6: 579, fig. 5 (1956) &amp; in Dyer et al., Fl. Southern Afr. 26 : 115 (1963) ; Palmer &amp; Pitman, Trees Southern Afr. 3 : 1825 (1972) ; Palgrave, Trees Southern Afr.: 760 (1977);
 Type : Jacquin, Pl Hort. Schoenbr. 3 ; t. 251 (1978), neotype, choisi par Verdoorn, loc. cit. (1956)
-Appareil végétatif
-Ce sont des buissons touffus ou de petits arbres de 0,5 m à 3 m de  haut. Les parties jeunes sont verruqueuses, glabres. Les feuilles aussi sont glabres.
-Les pétioles des feuilles ont de 2 à 5 mm de longueur. Le limbe des feuilles est étroit oblancéolé à elliptique, de (2,5-)3 à 8 cm de long, (0,5-)0,7 à 1 cm de large, la base et l'apex sont aigus, le sommet mucroné. Les nervures sont sombres, les marges sont légèrement réfléchies.
-Appareil reproducteur
-Les inflorescences sont terminales, paniculées, glabres. Les calices sont cupulés, les lobes à peine différentiés. La corolle est blanche, en tube de 0,5 mm de long. Les anthères sont sphéroïdes, de 1 à 1,5 mm de long, les filets ont de 0,5 à 0,75 mm de long. L'ovaire est de forme flasque mesurant 1 mm de long incluant un stigmate globuleux.
-Le fruit est une drupe ellipsoïde-globulaire de 8 à 10 par 7 à 8 mm, noire à maturité.
-Répartition géographique
-Afrique du Sud : Province du Cap.</t>
+</t>
         </is>
       </c>
     </row>
@@ -548,10 +558,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des buissons touffus ou de petits arbres de 0,5 m à 3 m de  haut. Les parties jeunes sont verruqueuses, glabres. Les feuilles aussi sont glabres.
+Les pétioles des feuilles ont de 2 à 5 mm de longueur. Le limbe des feuilles est étroit oblancéolé à elliptique, de (2,5-)3 à 8 cm de long, (0,5-)0,7 à 1 cm de large, la base et l'apex sont aigus, le sommet mucroné. Les nervures sont sombres, les marges sont légèrement réfléchies.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,12 +596,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description botanique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont terminales, paniculées, glabres. Les calices sont cupulés, les lobes à peine différentiés. La corolle est blanche, en tube de 0,5 mm de long. Les anthères sont sphéroïdes, de 1 à 1,5 mm de long, les filets ont de 0,5 à 0,75 mm de long. L'ovaire est de forme flasque mesurant 1 mm de long incluant un stigmate globuleux.
+Le fruit est une drupe ellipsoïde-globulaire de 8 à 10 par 7 à 8 mm, noire à maturité.
 </t>
         </is>
       </c>
@@ -605,10 +634,109 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Afrique du Sud : Province du Cap.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_exasperata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_exasperata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_exasperata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_exasperata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olea_exasperata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_exasperata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
